--- a/ResultadoEleicoesDistritos/PORTO_FELGUEIRAS.xlsx
+++ b/ResultadoEleicoesDistritos/PORTO_FELGUEIRAS.xlsx
@@ -597,64 +597,64 @@
         <v>15512</v>
       </c>
       <c r="H2" t="n">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I2" t="n">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="J2" t="n">
-        <v>6281</v>
+        <v>6446</v>
       </c>
       <c r="K2" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="L2" t="n">
-        <v>1731</v>
+        <v>1802</v>
       </c>
       <c r="M2" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N2" t="n">
-        <v>1123</v>
+        <v>1131</v>
       </c>
       <c r="O2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
         <v>24</v>
       </c>
       <c r="Q2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R2" t="n">
+        <v>63</v>
+      </c>
+      <c r="S2" t="n">
+        <v>699</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1175</v>
+      </c>
+      <c r="U2" t="n">
         <v>74</v>
       </c>
-      <c r="S2" t="n">
-        <v>729</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1130</v>
-      </c>
-      <c r="U2" t="n">
-        <v>86</v>
-      </c>
       <c r="V2" t="n">
-        <v>9936</v>
+        <v>9842</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>9986</v>
+        <v>9856</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA2" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
